--- a/public/template/template_guru.xlsx
+++ b/public/template/template_guru.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project\mtsn1tegal\mtsn-1-tegal-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>nama_guru</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>nuptk</t>
   </si>
 </sst>
 </file>
@@ -356,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,12 +371,15 @@
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/template_guru.xlsx
+++ b/public/template/template_guru.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project\mtsn1tegal\mtsn-1-tegal-app\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\mts\mtsn-1-tegal-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>nuptk</t>
+    <t>nip</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
